--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W20_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W20_H50_B16.xlsx
@@ -502,23 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.551829268292683</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>0.5552147239263804</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="E2" t="n">
-        <v>0.551829268292683</v>
+        <v>0.5579268292682927</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7111984282907663</v>
+        <v>0.7140039447731755</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4817073170731707</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1367143025617728</v>
+        <v>0.09442504208472922</v>
       </c>
       <c r="J2" t="n">
-        <v>1804.992414953369</v>
+        <v>1244.31010581361</v>
       </c>
       <c r="K2" t="n">
-        <v>4332780.32886079</v>
+        <v>2150776.45447477</v>
       </c>
       <c r="L2" t="n">
-        <v>2081.533167850273</v>
+        <v>1466.552574739402</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1826606270666703</v>
+        <v>0.5942756970828511</v>
       </c>
     </row>
   </sheetData>
